--- a/public/uploads/templates/expired.xlsx
+++ b/public/uploads/templates/expired.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pharmex\public\uploads\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wins\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648AFF87-4881-4AB5-B45F-51171A396D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DEE60F-3B93-489C-9B12-B9B69A937791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4754CD1-D6BC-4AF8-B073-73EF5F8FF5EF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7874E887-BCEA-4DCF-8C1F-2BFF16320F0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="expired" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>BRAND NAME</t>
   </si>
@@ -61,16 +61,13 @@
   </si>
   <si>
     <t>BP PER PACK</t>
-  </si>
-  <si>
-    <t>TOTAL COST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +77,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,18 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,31 +439,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFDEF45-7677-428F-A1C3-D64EF1C0861D}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48B8DA-93C2-4F0E-83CA-583C4F1E9653}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="186.44140625" customWidth="1"/>
-    <col min="13" max="13" width="95.88671875" customWidth="1"/>
+    <col min="1" max="13" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,42 +488,6 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/templates/expired.xlsx
+++ b/public/uploads/templates/expired.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wins\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pharmex\public\uploads\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DEE60F-3B93-489C-9B12-B9B69A937791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6893427C-3C97-4211-9BE0-4149F6F613E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7874E887-BCEA-4DCF-8C1F-2BFF16320F0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BRAND NAME</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>PACKS</t>
-  </si>
-  <si>
-    <t>TOTAL QUANTITY</t>
   </si>
   <si>
     <t>BP PER PACK</t>
@@ -440,18 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB48B8DA-93C2-4F0E-83CA-583C4F1E9653}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="12.88671875" customWidth="1"/>
+    <col min="1" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,9 +481,6 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
